--- a/用例数据/深A/红股红利/兑付/兑付当日/测试结果.xlsx
+++ b/用例数据/深A/红股红利/兑付/兑付当日/测试结果.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25860" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25860" windowHeight="12216" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="stklist2022" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,15 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">exchangerights!$A$1:$BP$22</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">stklist2022!$A$1:$CA$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">tradinglog2022!$A$1:$EH$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">stklist2022!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">tradinglog2022!#REF!</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3333" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3792" uniqueCount="427">
   <si>
     <t>OCCURTIME</t>
   </si>
@@ -1100,185 +1100,225 @@
     <t>30050049</t>
   </si>
   <si>
-    <t>20221007000000</t>
-  </si>
-  <si>
-    <t>30052548</t>
-  </si>
-  <si>
-    <t>20221007203459</t>
-  </si>
-  <si>
-    <t>160000</t>
-  </si>
-  <si>
-    <t>375304318.760</t>
-  </si>
-  <si>
-    <t>-160000</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>000006907468</t>
-  </si>
-  <si>
-    <t>20221010000000</t>
-  </si>
-  <si>
-    <t>30052549</t>
-  </si>
-  <si>
-    <t>375303818.760</t>
-  </si>
-  <si>
-    <t>000006907470</t>
-  </si>
-  <si>
-    <t>30052552</t>
-  </si>
-  <si>
-    <t>999736737.780</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>000006907482</t>
-  </si>
-  <si>
-    <t>30052553</t>
-  </si>
-  <si>
-    <t>-26058481.090</t>
-  </si>
-  <si>
-    <t>000006907483</t>
-  </si>
-  <si>
-    <t>30052554</t>
-  </si>
-  <si>
-    <t>10049000.000</t>
-  </si>
-  <si>
-    <t>000006907484</t>
-  </si>
-  <si>
-    <t>30052555</t>
-  </si>
-  <si>
-    <t>10021000.000</t>
-  </si>
-  <si>
-    <t>000006907485</t>
-  </si>
-  <si>
-    <t>30052563</t>
-  </si>
-  <si>
-    <t>20221007203501</t>
-  </si>
-  <si>
-    <t>376303818.760</t>
-  </si>
-  <si>
-    <t>000006907493</t>
-  </si>
-  <si>
-    <t>30052568</t>
-  </si>
-  <si>
-    <t>-170000</t>
-  </si>
-  <si>
-    <t>000006907498</t>
-  </si>
-  <si>
-    <t>30052821</t>
-  </si>
-  <si>
-    <t>20221007203502</t>
-  </si>
-  <si>
-    <t>11946985.000</t>
-  </si>
-  <si>
-    <t>000006907765</t>
-  </si>
-  <si>
-    <t>30052822</t>
-  </si>
-  <si>
-    <t>10567000.000</t>
-  </si>
-  <si>
-    <t>000006907766</t>
-  </si>
-  <si>
-    <t>30052823</t>
-  </si>
-  <si>
-    <t>1001482728.280</t>
-  </si>
-  <si>
-    <t>000006907767</t>
-  </si>
-  <si>
-    <t>30052824</t>
-  </si>
-  <si>
-    <t>-25758481.090</t>
-  </si>
-  <si>
-    <t>000006907768</t>
-  </si>
-  <si>
-    <t>30052825</t>
-  </si>
-  <si>
-    <t>000006907769</t>
-  </si>
-  <si>
-    <t>30052826</t>
-  </si>
-  <si>
-    <t>20221007203503</t>
-  </si>
-  <si>
-    <t>000006907770</t>
-  </si>
-  <si>
-    <t>30052827</t>
-  </si>
-  <si>
-    <t>000006907771</t>
-  </si>
-  <si>
-    <t>30052828</t>
-  </si>
-  <si>
-    <t>000006907772</t>
+    <t>20221213000000</t>
+  </si>
+  <si>
+    <t>34650.000</t>
+  </si>
+  <si>
+    <t>14850.000</t>
+  </si>
+  <si>
+    <t>OTHERFEE4</t>
+  </si>
+  <si>
+    <t>30001609</t>
+  </si>
+  <si>
+    <t>20221213230129</t>
+  </si>
+  <si>
+    <t>1009496500.000</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>000007095076</t>
+  </si>
+  <si>
+    <t>20221214000000</t>
+  </si>
+  <si>
+    <t>30001610</t>
+  </si>
+  <si>
+    <t>1009496000.000</t>
+  </si>
+  <si>
+    <t>000007095077</t>
+  </si>
+  <si>
+    <t>30001611</t>
+  </si>
+  <si>
+    <t>CCB1</t>
+  </si>
+  <si>
+    <t>-104656966.020</t>
+  </si>
+  <si>
+    <t>000007095078</t>
+  </si>
+  <si>
+    <t>30001612</t>
+  </si>
+  <si>
+    <t>-350.000</t>
+  </si>
+  <si>
+    <t>350.000</t>
+  </si>
+  <si>
+    <t>-104657316.020</t>
+  </si>
+  <si>
+    <t>000007095079</t>
+  </si>
+  <si>
+    <t>30001613</t>
+  </si>
+  <si>
+    <t>-203841340.620</t>
+  </si>
+  <si>
+    <t>000007095080</t>
+  </si>
+  <si>
+    <t>30001614</t>
+  </si>
+  <si>
+    <t>-150.000</t>
+  </si>
+  <si>
+    <t>150.000</t>
+  </si>
+  <si>
+    <t>-203841490.620</t>
+  </si>
+  <si>
+    <t>000007095081</t>
+  </si>
+  <si>
+    <t>30001615</t>
+  </si>
+  <si>
+    <t>20517478.950</t>
+  </si>
+  <si>
+    <t>000007095082</t>
+  </si>
+  <si>
+    <t>30001616</t>
+  </si>
+  <si>
+    <t>20517128.950</t>
+  </si>
+  <si>
+    <t>000007095083</t>
+  </si>
+  <si>
+    <t>30001617</t>
+  </si>
+  <si>
+    <t>-2123164.720</t>
+  </si>
+  <si>
+    <t>000007095084</t>
+  </si>
+  <si>
+    <t>30001618</t>
+  </si>
+  <si>
+    <t>-2123314.720</t>
+  </si>
+  <si>
+    <t>000007095085</t>
+  </si>
+  <si>
+    <t>30001619</t>
+  </si>
+  <si>
+    <t>20221213230131</t>
+  </si>
+  <si>
+    <t>1010496000.000</t>
+  </si>
+  <si>
+    <t>000007095110</t>
+  </si>
+  <si>
+    <t>30001620</t>
+  </si>
+  <si>
+    <t>000007095111</t>
+  </si>
+  <si>
+    <t>30001905</t>
+  </si>
+  <si>
+    <t>20221213230132</t>
+  </si>
+  <si>
+    <t>-102582814.170</t>
+  </si>
+  <si>
+    <t>000007095407</t>
+  </si>
+  <si>
+    <t>30001909</t>
+  </si>
+  <si>
+    <t>000007095411</t>
+  </si>
+  <si>
+    <t>30001906</t>
+  </si>
+  <si>
+    <t>-203541490.620</t>
+  </si>
+  <si>
+    <t>000007095408</t>
+  </si>
+  <si>
+    <t>30001910</t>
+  </si>
+  <si>
+    <t>000007095412</t>
+  </si>
+  <si>
+    <t>30001903</t>
+  </si>
+  <si>
+    <t>19837343.560</t>
+  </si>
+  <si>
+    <t>000007095405</t>
+  </si>
+  <si>
+    <t>30001907</t>
+  </si>
+  <si>
+    <t>000007095409</t>
+  </si>
+  <si>
+    <t>30001904</t>
+  </si>
+  <si>
+    <t>-1823314.720</t>
+  </si>
+  <si>
+    <t>000007095406</t>
+  </si>
+  <si>
+    <t>30001908</t>
+  </si>
+  <si>
+    <t>000007095410</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1310,10 +1350,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1618,88 +1657,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CA11"/>
+  <dimension ref="A1:CA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="7.625" customWidth="1"/>
-    <col min="3" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="11.875" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="11.875" customWidth="1"/>
-    <col min="8" max="8" width="7.625" customWidth="1"/>
-    <col min="9" max="9" width="9.625" customWidth="1"/>
-    <col min="10" max="10" width="20.875" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="20.88671875" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="14.125" customWidth="1"/>
-    <col min="13" max="13" width="9.625" customWidth="1"/>
-    <col min="14" max="14" width="16.5" customWidth="1"/>
-    <col min="15" max="15" width="10.75" customWidth="1"/>
-    <col min="16" max="16" width="11.875" customWidth="1"/>
-    <col min="17" max="18" width="15.25" customWidth="1"/>
-    <col min="19" max="19" width="14.125" customWidth="1"/>
-    <col min="20" max="20" width="17.5" customWidth="1"/>
-    <col min="21" max="21" width="14.125" customWidth="1"/>
-    <col min="22" max="22" width="16.5" customWidth="1"/>
-    <col min="23" max="23" width="11.875" customWidth="1"/>
-    <col min="24" max="24" width="8.625" customWidth="1"/>
-    <col min="25" max="25" width="10.75" customWidth="1"/>
-    <col min="26" max="26" width="7.625" customWidth="1"/>
-    <col min="27" max="27" width="17.5" customWidth="1"/>
-    <col min="28" max="28" width="9.625" customWidth="1"/>
-    <col min="29" max="29" width="15.25" customWidth="1"/>
-    <col min="30" max="30" width="10.75" customWidth="1"/>
-    <col min="31" max="31" width="15.25" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" customWidth="1"/>
+    <col min="15" max="15" width="10.77734375" customWidth="1"/>
+    <col min="16" max="16" width="11.88671875" customWidth="1"/>
+    <col min="17" max="18" width="15.21875" customWidth="1"/>
+    <col min="19" max="19" width="14.109375" customWidth="1"/>
+    <col min="20" max="20" width="17.44140625" customWidth="1"/>
+    <col min="21" max="21" width="14.109375" customWidth="1"/>
+    <col min="22" max="22" width="16.44140625" customWidth="1"/>
+    <col min="23" max="23" width="11.88671875" customWidth="1"/>
+    <col min="24" max="24" width="8.6640625" customWidth="1"/>
+    <col min="25" max="25" width="10.77734375" customWidth="1"/>
+    <col min="26" max="26" width="7.6640625" customWidth="1"/>
+    <col min="27" max="27" width="17.44140625" customWidth="1"/>
+    <col min="28" max="28" width="9.6640625" customWidth="1"/>
+    <col min="29" max="29" width="15.21875" customWidth="1"/>
+    <col min="30" max="30" width="10.77734375" customWidth="1"/>
+    <col min="31" max="31" width="15.21875" customWidth="1"/>
     <col min="32" max="32" width="22" customWidth="1"/>
-    <col min="33" max="33" width="11.875" customWidth="1"/>
-    <col min="34" max="34" width="20.875" customWidth="1"/>
-    <col min="35" max="35" width="24.25" customWidth="1"/>
-    <col min="36" max="36" width="23.125" customWidth="1"/>
+    <col min="33" max="33" width="11.88671875" customWidth="1"/>
+    <col min="34" max="34" width="20.88671875" customWidth="1"/>
+    <col min="35" max="35" width="24.21875" customWidth="1"/>
+    <col min="36" max="36" width="23.109375" customWidth="1"/>
     <col min="37" max="38" width="13" customWidth="1"/>
-    <col min="39" max="40" width="14.125" customWidth="1"/>
-    <col min="41" max="42" width="15.25" customWidth="1"/>
+    <col min="39" max="40" width="14.109375" customWidth="1"/>
+    <col min="41" max="42" width="15.21875" customWidth="1"/>
     <col min="43" max="44" width="13" customWidth="1"/>
-    <col min="45" max="45" width="14.125" customWidth="1"/>
-    <col min="46" max="46" width="16.5" customWidth="1"/>
-    <col min="47" max="47" width="23.125" customWidth="1"/>
-    <col min="48" max="48" width="19.75" customWidth="1"/>
-    <col min="49" max="49" width="23.125" customWidth="1"/>
-    <col min="50" max="50" width="15.25" customWidth="1"/>
-    <col min="51" max="51" width="18.625" customWidth="1"/>
-    <col min="52" max="52" width="17.5" customWidth="1"/>
-    <col min="53" max="54" width="16.5" customWidth="1"/>
-    <col min="55" max="56" width="17.5" customWidth="1"/>
-    <col min="57" max="57" width="16.5" customWidth="1"/>
-    <col min="58" max="58" width="17.5" customWidth="1"/>
-    <col min="59" max="59" width="18.625" customWidth="1"/>
-    <col min="60" max="60" width="25.5" customWidth="1"/>
-    <col min="61" max="61" width="27.625" customWidth="1"/>
-    <col min="62" max="62" width="20.875" customWidth="1"/>
-    <col min="63" max="63" width="16.5" customWidth="1"/>
-    <col min="64" max="64" width="23.125" customWidth="1"/>
-    <col min="65" max="65" width="9.625" customWidth="1"/>
-    <col min="66" max="66" width="23.125" customWidth="1"/>
-    <col min="67" max="67" width="18.625" customWidth="1"/>
-    <col min="68" max="68" width="24.25" customWidth="1"/>
-    <col min="69" max="69" width="19.75" customWidth="1"/>
-    <col min="70" max="70" width="15.25" customWidth="1"/>
-    <col min="71" max="71" width="16.5" customWidth="1"/>
-    <col min="72" max="72" width="18.625" customWidth="1"/>
-    <col min="73" max="73" width="19.75" customWidth="1"/>
-    <col min="74" max="74" width="26.5" customWidth="1"/>
-    <col min="75" max="75" width="14.125" customWidth="1"/>
+    <col min="45" max="45" width="14.109375" customWidth="1"/>
+    <col min="46" max="46" width="16.44140625" customWidth="1"/>
+    <col min="47" max="47" width="23.109375" customWidth="1"/>
+    <col min="48" max="48" width="19.77734375" customWidth="1"/>
+    <col min="49" max="49" width="23.109375" customWidth="1"/>
+    <col min="50" max="50" width="15.21875" customWidth="1"/>
+    <col min="51" max="51" width="18.6640625" customWidth="1"/>
+    <col min="52" max="52" width="17.44140625" customWidth="1"/>
+    <col min="53" max="54" width="16.44140625" customWidth="1"/>
+    <col min="55" max="56" width="17.44140625" customWidth="1"/>
+    <col min="57" max="57" width="16.44140625" customWidth="1"/>
+    <col min="58" max="58" width="17.44140625" customWidth="1"/>
+    <col min="59" max="59" width="18.6640625" customWidth="1"/>
+    <col min="60" max="60" width="25.44140625" customWidth="1"/>
+    <col min="61" max="61" width="27.6640625" customWidth="1"/>
+    <col min="62" max="62" width="20.88671875" customWidth="1"/>
+    <col min="63" max="63" width="16.44140625" customWidth="1"/>
+    <col min="64" max="64" width="23.109375" customWidth="1"/>
+    <col min="65" max="65" width="9.6640625" customWidth="1"/>
+    <col min="66" max="66" width="23.109375" customWidth="1"/>
+    <col min="67" max="67" width="18.6640625" customWidth="1"/>
+    <col min="68" max="68" width="24.21875" customWidth="1"/>
+    <col min="69" max="69" width="19.77734375" customWidth="1"/>
+    <col min="70" max="70" width="15.21875" customWidth="1"/>
+    <col min="71" max="71" width="16.44140625" customWidth="1"/>
+    <col min="72" max="72" width="18.6640625" customWidth="1"/>
+    <col min="73" max="73" width="19.77734375" customWidth="1"/>
+    <col min="74" max="74" width="26.44140625" customWidth="1"/>
+    <col min="75" max="75" width="14.109375" customWidth="1"/>
     <col min="76" max="76" width="13" customWidth="1"/>
     <col min="77" max="77" width="22" customWidth="1"/>
-    <col min="78" max="78" width="17.5" customWidth="1"/>
-    <col min="79" max="79" width="20.875" customWidth="1"/>
+    <col min="78" max="78" width="17.44140625" customWidth="1"/>
+    <col min="79" max="79" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1938,9 +1977,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>80</v>
@@ -1979,7 +2018,7 @@
         <v>88</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>250</v>
+        <v>359</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>86</v>
@@ -2129,7 +2168,7 @@
         <v>88</v>
       </c>
       <c r="BL2" s="1" t="s">
-        <v>250</v>
+        <v>359</v>
       </c>
       <c r="BM2" s="1" t="s">
         <v>97</v>
@@ -2177,9 +2216,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>80</v>
@@ -2218,7 +2257,7 @@
         <v>88</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>236</v>
+        <v>360</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>86</v>
@@ -2368,7 +2407,7 @@
         <v>88</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>236</v>
+        <v>360</v>
       </c>
       <c r="BM3" s="1" t="s">
         <v>97</v>
@@ -2416,9 +2455,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>80</v>
@@ -2457,7 +2496,7 @@
         <v>88</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>250</v>
+        <v>359</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>86</v>
@@ -2607,7 +2646,7 @@
         <v>88</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>250</v>
+        <v>359</v>
       </c>
       <c r="BM4" s="1" t="s">
         <v>97</v>
@@ -2655,9 +2694,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>80</v>
@@ -2696,7 +2735,7 @@
         <v>88</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>236</v>
+        <v>360</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>86</v>
@@ -2846,7 +2885,7 @@
         <v>88</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>236</v>
+        <v>360</v>
       </c>
       <c r="BM5" s="1" t="s">
         <v>97</v>
@@ -2894,14 +2933,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -2909,145 +2942,145 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EI44"/>
+  <dimension ref="A1:EI26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.44140625" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="15.25" customWidth="1"/>
-    <col min="9" max="9" width="7.625" customWidth="1"/>
-    <col min="10" max="10" width="14.125" customWidth="1"/>
-    <col min="11" max="11" width="16.5" customWidth="1"/>
-    <col min="12" max="12" width="9.625" customWidth="1"/>
-    <col min="13" max="13" width="11.875" customWidth="1"/>
-    <col min="14" max="14" width="7.625" customWidth="1"/>
-    <col min="15" max="15" width="9.625" customWidth="1"/>
-    <col min="16" max="16" width="8.625" customWidth="1"/>
-    <col min="17" max="17" width="10.75" customWidth="1"/>
-    <col min="18" max="18" width="8.625" customWidth="1"/>
-    <col min="19" max="19" width="6.625" customWidth="1"/>
-    <col min="20" max="20" width="7.625" customWidth="1"/>
-    <col min="21" max="21" width="10.75" customWidth="1"/>
-    <col min="22" max="22" width="9.625" customWidth="1"/>
-    <col min="23" max="23" width="14.125" customWidth="1"/>
-    <col min="24" max="24" width="16.5" customWidth="1"/>
-    <col min="25" max="25" width="14.125" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" customWidth="1"/>
+    <col min="11" max="11" width="16.44140625" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" customWidth="1"/>
+    <col min="16" max="16" width="8.6640625" customWidth="1"/>
+    <col min="17" max="17" width="10.77734375" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" customWidth="1"/>
+    <col min="19" max="19" width="6.6640625" customWidth="1"/>
+    <col min="20" max="20" width="7.6640625" customWidth="1"/>
+    <col min="21" max="21" width="10.77734375" customWidth="1"/>
+    <col min="22" max="22" width="9.6640625" customWidth="1"/>
+    <col min="23" max="23" width="14.109375" customWidth="1"/>
+    <col min="24" max="24" width="16.44140625" customWidth="1"/>
+    <col min="25" max="25" width="14.109375" customWidth="1"/>
     <col min="26" max="26" width="13" customWidth="1"/>
-    <col min="27" max="27" width="16.5" customWidth="1"/>
-    <col min="28" max="28" width="8.625" customWidth="1"/>
-    <col min="29" max="29" width="9.625" customWidth="1"/>
-    <col min="30" max="30" width="23.125" customWidth="1"/>
-    <col min="31" max="31" width="10.75" customWidth="1"/>
-    <col min="32" max="32" width="15.25" customWidth="1"/>
-    <col min="33" max="34" width="14.125" customWidth="1"/>
+    <col min="27" max="27" width="16.44140625" customWidth="1"/>
+    <col min="28" max="28" width="8.6640625" customWidth="1"/>
+    <col min="29" max="29" width="9.6640625" customWidth="1"/>
+    <col min="30" max="30" width="23.109375" customWidth="1"/>
+    <col min="31" max="31" width="10.77734375" customWidth="1"/>
+    <col min="32" max="32" width="15.21875" customWidth="1"/>
+    <col min="33" max="34" width="14.109375" customWidth="1"/>
     <col min="35" max="36" width="13" customWidth="1"/>
-    <col min="37" max="37" width="9.625" customWidth="1"/>
+    <col min="37" max="37" width="9.6640625" customWidth="1"/>
     <col min="38" max="38" width="13" customWidth="1"/>
-    <col min="39" max="39" width="10.75" customWidth="1"/>
-    <col min="40" max="40" width="14.125" customWidth="1"/>
-    <col min="41" max="41" width="11.875" customWidth="1"/>
-    <col min="42" max="43" width="9.625" customWidth="1"/>
-    <col min="44" max="44" width="14.125" customWidth="1"/>
-    <col min="45" max="45" width="16.5" customWidth="1"/>
-    <col min="46" max="46" width="9.625" customWidth="1"/>
+    <col min="39" max="39" width="10.77734375" customWidth="1"/>
+    <col min="40" max="40" width="14.109375" customWidth="1"/>
+    <col min="41" max="41" width="11.88671875" customWidth="1"/>
+    <col min="42" max="43" width="9.6640625" customWidth="1"/>
+    <col min="44" max="44" width="14.109375" customWidth="1"/>
+    <col min="45" max="45" width="16.44140625" customWidth="1"/>
+    <col min="46" max="46" width="9.6640625" customWidth="1"/>
     <col min="47" max="47" width="13" customWidth="1"/>
-    <col min="48" max="48" width="14.125" customWidth="1"/>
-    <col min="49" max="49" width="8.625" customWidth="1"/>
-    <col min="50" max="50" width="17.5" customWidth="1"/>
-    <col min="51" max="51" width="11.875" customWidth="1"/>
-    <col min="52" max="52" width="8.625" customWidth="1"/>
-    <col min="53" max="53" width="9.625" customWidth="1"/>
+    <col min="48" max="48" width="14.109375" customWidth="1"/>
+    <col min="49" max="49" width="8.6640625" customWidth="1"/>
+    <col min="50" max="50" width="17.44140625" customWidth="1"/>
+    <col min="51" max="51" width="11.88671875" customWidth="1"/>
+    <col min="52" max="52" width="8.6640625" customWidth="1"/>
+    <col min="53" max="53" width="9.6640625" customWidth="1"/>
     <col min="54" max="54" width="13" customWidth="1"/>
-    <col min="55" max="55" width="16.5" customWidth="1"/>
+    <col min="55" max="55" width="16.44140625" customWidth="1"/>
     <col min="56" max="57" width="13" customWidth="1"/>
-    <col min="58" max="58" width="16.5" customWidth="1"/>
-    <col min="59" max="59" width="15.25" customWidth="1"/>
-    <col min="60" max="60" width="5.625" customWidth="1"/>
-    <col min="61" max="61" width="17.5" customWidth="1"/>
-    <col min="62" max="62" width="14.125" customWidth="1"/>
-    <col min="63" max="63" width="11.875" customWidth="1"/>
-    <col min="64" max="64" width="8.625" customWidth="1"/>
-    <col min="65" max="65" width="14.125" customWidth="1"/>
-    <col min="66" max="66" width="9.625" customWidth="1"/>
-    <col min="67" max="67" width="17.5" customWidth="1"/>
-    <col min="68" max="68" width="10.75" customWidth="1"/>
-    <col min="69" max="69" width="11.875" customWidth="1"/>
+    <col min="58" max="58" width="16.44140625" customWidth="1"/>
+    <col min="59" max="59" width="15.21875" customWidth="1"/>
+    <col min="60" max="60" width="5.6640625" customWidth="1"/>
+    <col min="61" max="61" width="17.44140625" customWidth="1"/>
+    <col min="62" max="62" width="14.109375" customWidth="1"/>
+    <col min="63" max="63" width="11.88671875" customWidth="1"/>
+    <col min="64" max="64" width="8.6640625" customWidth="1"/>
+    <col min="65" max="65" width="14.109375" customWidth="1"/>
+    <col min="66" max="66" width="9.6640625" customWidth="1"/>
+    <col min="67" max="67" width="17.44140625" customWidth="1"/>
+    <col min="68" max="68" width="10.77734375" customWidth="1"/>
+    <col min="69" max="69" width="11.88671875" customWidth="1"/>
     <col min="70" max="70" width="13" customWidth="1"/>
-    <col min="71" max="71" width="11.875" customWidth="1"/>
-    <col min="72" max="72" width="15.25" customWidth="1"/>
-    <col min="73" max="73" width="11.875" customWidth="1"/>
+    <col min="71" max="71" width="11.88671875" customWidth="1"/>
+    <col min="72" max="72" width="15.21875" customWidth="1"/>
+    <col min="73" max="73" width="11.88671875" customWidth="1"/>
     <col min="74" max="74" width="13" customWidth="1"/>
-    <col min="75" max="75" width="17.5" customWidth="1"/>
-    <col min="76" max="76" width="20.875" customWidth="1"/>
-    <col min="77" max="77" width="16.5" customWidth="1"/>
+    <col min="75" max="75" width="17.44140625" customWidth="1"/>
+    <col min="76" max="76" width="20.88671875" customWidth="1"/>
+    <col min="77" max="77" width="16.44140625" customWidth="1"/>
     <col min="78" max="78" width="13" customWidth="1"/>
-    <col min="79" max="79" width="11.875" customWidth="1"/>
-    <col min="80" max="80" width="10.75" customWidth="1"/>
-    <col min="81" max="81" width="11.875" customWidth="1"/>
-    <col min="82" max="83" width="7.625" customWidth="1"/>
-    <col min="84" max="85" width="17.5" customWidth="1"/>
-    <col min="86" max="86" width="16.5" customWidth="1"/>
-    <col min="87" max="87" width="11.875" customWidth="1"/>
-    <col min="88" max="88" width="14.125" customWidth="1"/>
-    <col min="89" max="89" width="16.5" customWidth="1"/>
-    <col min="90" max="90" width="10.75" customWidth="1"/>
-    <col min="91" max="91" width="11.875" customWidth="1"/>
-    <col min="92" max="92" width="19.75" customWidth="1"/>
-    <col min="93" max="93" width="16.5" customWidth="1"/>
-    <col min="94" max="94" width="23.125" customWidth="1"/>
-    <col min="95" max="95" width="7.625" customWidth="1"/>
-    <col min="96" max="96" width="18.625" customWidth="1"/>
-    <col min="97" max="97" width="10.75" customWidth="1"/>
-    <col min="98" max="98" width="14.125" customWidth="1"/>
+    <col min="79" max="79" width="11.88671875" customWidth="1"/>
+    <col min="80" max="80" width="10.77734375" customWidth="1"/>
+    <col min="81" max="81" width="11.88671875" customWidth="1"/>
+    <col min="82" max="83" width="7.6640625" customWidth="1"/>
+    <col min="84" max="85" width="17.44140625" customWidth="1"/>
+    <col min="86" max="86" width="16.44140625" customWidth="1"/>
+    <col min="87" max="87" width="11.88671875" customWidth="1"/>
+    <col min="88" max="88" width="14.109375" customWidth="1"/>
+    <col min="89" max="89" width="16.44140625" customWidth="1"/>
+    <col min="90" max="90" width="10.77734375" customWidth="1"/>
+    <col min="91" max="91" width="11.88671875" customWidth="1"/>
+    <col min="92" max="92" width="19.77734375" customWidth="1"/>
+    <col min="93" max="93" width="16.44140625" customWidth="1"/>
+    <col min="94" max="94" width="23.109375" customWidth="1"/>
+    <col min="95" max="95" width="7.6640625" customWidth="1"/>
+    <col min="96" max="96" width="18.6640625" customWidth="1"/>
+    <col min="97" max="97" width="10.77734375" customWidth="1"/>
+    <col min="98" max="98" width="14.109375" customWidth="1"/>
     <col min="99" max="99" width="13" customWidth="1"/>
-    <col min="100" max="100" width="16.5" customWidth="1"/>
+    <col min="100" max="100" width="16.44140625" customWidth="1"/>
     <col min="101" max="102" width="13" customWidth="1"/>
-    <col min="103" max="103" width="9.625" customWidth="1"/>
-    <col min="104" max="104" width="16.5" customWidth="1"/>
-    <col min="105" max="105" width="14.125" customWidth="1"/>
-    <col min="106" max="106" width="11.875" customWidth="1"/>
-    <col min="107" max="108" width="15.25" customWidth="1"/>
-    <col min="109" max="109" width="9.625" customWidth="1"/>
+    <col min="103" max="103" width="9.6640625" customWidth="1"/>
+    <col min="104" max="104" width="16.44140625" customWidth="1"/>
+    <col min="105" max="105" width="14.109375" customWidth="1"/>
+    <col min="106" max="106" width="11.88671875" customWidth="1"/>
+    <col min="107" max="108" width="15.21875" customWidth="1"/>
+    <col min="109" max="109" width="9.6640625" customWidth="1"/>
     <col min="110" max="110" width="13" customWidth="1"/>
-    <col min="111" max="111" width="9.625" customWidth="1"/>
-    <col min="112" max="112" width="15.25" customWidth="1"/>
-    <col min="113" max="113" width="17.5" customWidth="1"/>
-    <col min="114" max="114" width="14.125" customWidth="1"/>
-    <col min="115" max="115" width="19.75" customWidth="1"/>
-    <col min="116" max="116" width="16.5" customWidth="1"/>
-    <col min="117" max="117" width="20.875" customWidth="1"/>
-    <col min="118" max="118" width="24.25" customWidth="1"/>
-    <col min="119" max="119" width="16.5" customWidth="1"/>
-    <col min="120" max="120" width="17.5" customWidth="1"/>
+    <col min="111" max="111" width="9.6640625" customWidth="1"/>
+    <col min="112" max="112" width="15.21875" customWidth="1"/>
+    <col min="113" max="113" width="17.44140625" customWidth="1"/>
+    <col min="114" max="114" width="14.109375" customWidth="1"/>
+    <col min="115" max="115" width="19.77734375" customWidth="1"/>
+    <col min="116" max="116" width="16.44140625" customWidth="1"/>
+    <col min="117" max="117" width="20.88671875" customWidth="1"/>
+    <col min="118" max="118" width="24.21875" customWidth="1"/>
+    <col min="119" max="119" width="16.44140625" customWidth="1"/>
+    <col min="120" max="120" width="17.44140625" customWidth="1"/>
     <col min="121" max="121" width="22" customWidth="1"/>
-    <col min="122" max="123" width="20.875" customWidth="1"/>
-    <col min="124" max="124" width="19.75" customWidth="1"/>
-    <col min="125" max="125" width="17.5" customWidth="1"/>
-    <col min="126" max="126" width="20.875" customWidth="1"/>
-    <col min="127" max="127" width="18.625" customWidth="1"/>
-    <col min="128" max="128" width="8.625" customWidth="1"/>
-    <col min="129" max="129" width="15.25" customWidth="1"/>
+    <col min="122" max="123" width="20.88671875" customWidth="1"/>
+    <col min="124" max="124" width="19.77734375" customWidth="1"/>
+    <col min="125" max="125" width="17.44140625" customWidth="1"/>
+    <col min="126" max="126" width="20.88671875" customWidth="1"/>
+    <col min="127" max="127" width="18.6640625" customWidth="1"/>
+    <col min="128" max="128" width="8.6640625" customWidth="1"/>
+    <col min="129" max="129" width="15.21875" customWidth="1"/>
     <col min="130" max="130" width="13" customWidth="1"/>
-    <col min="131" max="131" width="14.125" customWidth="1"/>
-    <col min="132" max="132" width="10.75" customWidth="1"/>
-    <col min="133" max="133" width="11.875" customWidth="1"/>
-    <col min="134" max="134" width="15.25" customWidth="1"/>
-    <col min="135" max="135" width="16.5" customWidth="1"/>
-    <col min="136" max="136" width="14.125" customWidth="1"/>
-    <col min="137" max="137" width="17.5" customWidth="1"/>
-    <col min="138" max="138" width="14.125" customWidth="1"/>
+    <col min="131" max="131" width="14.109375" customWidth="1"/>
+    <col min="132" max="132" width="10.77734375" customWidth="1"/>
+    <col min="133" max="133" width="11.88671875" customWidth="1"/>
+    <col min="134" max="134" width="15.21875" customWidth="1"/>
+    <col min="135" max="135" width="16.44140625" customWidth="1"/>
+    <col min="136" max="136" width="14.109375" customWidth="1"/>
+    <col min="137" max="137" width="17.44140625" customWidth="1"/>
+    <col min="138" max="138" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>106</v>
       </c>
@@ -3462,10 +3495,13 @@
       <c r="EH1" s="1" t="s">
         <v>231</v>
       </c>
+      <c r="EI1" s="1" t="s">
+        <v>361</v>
+      </c>
     </row>
-    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>232</v>
@@ -3474,10 +3510,10 @@
         <v>89</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>80</v>
@@ -3519,13 +3555,13 @@
         <v>234</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>360</v>
+        <v>256</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>96</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>257</v>
@@ -3534,10 +3570,10 @@
         <v>257</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>362</v>
+        <v>256</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>88</v>
@@ -3636,7 +3672,7 @@
         <v>86</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="BP2" s="1" t="s">
         <v>242</v>
@@ -3666,7 +3702,7 @@
         <v>80</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>86</v>
+        <v>365</v>
       </c>
       <c r="CA2" s="1" t="s">
         <v>88</v>
@@ -3684,13 +3720,13 @@
         <v>86</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="CJ2" s="1" t="s">
         <v>242</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="CL2" s="1" t="s">
         <v>94</v>
@@ -3789,9 +3825,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>259</v>
@@ -3800,10 +3836,10 @@
         <v>89</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>80</v>
@@ -3851,7 +3887,7 @@
         <v>96</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>260</v>
@@ -3860,10 +3896,10 @@
         <v>261</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>362</v>
+        <v>256</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>88</v>
@@ -3962,7 +3998,7 @@
         <v>86</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="BP3" s="1" t="s">
         <v>242</v>
@@ -3992,7 +4028,7 @@
         <v>80</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>86</v>
+        <v>365</v>
       </c>
       <c r="CA3" s="1" t="s">
         <v>88</v>
@@ -4010,13 +4046,13 @@
         <v>86</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="CJ3" s="1" t="s">
         <v>242</v>
       </c>
       <c r="CK3" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="CL3" s="1" t="s">
         <v>94</v>
@@ -4115,9 +4151,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>232</v>
@@ -4126,13 +4162,16 @@
         <v>89</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>80</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>372</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>81</v>
@@ -4171,13 +4210,13 @@
         <v>234</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>86</v>
+        <v>249</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>96</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>250</v>
@@ -4186,7 +4225,7 @@
         <v>250</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>249</v>
@@ -4234,7 +4273,7 @@
         <v>237</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>371</v>
+        <v>91</v>
       </c>
       <c r="AR4" s="1" t="s">
         <v>81</v>
@@ -4258,7 +4297,7 @@
         <v>88</v>
       </c>
       <c r="AZ4" s="1" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="BA4" s="1" t="s">
         <v>86</v>
@@ -4318,7 +4357,7 @@
         <v>80</v>
       </c>
       <c r="BZ4" s="1" t="s">
-        <v>86</v>
+        <v>365</v>
       </c>
       <c r="CA4" s="1" t="s">
         <v>88</v>
@@ -4336,13 +4375,13 @@
         <v>86</v>
       </c>
       <c r="CH4" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="CJ4" s="1" t="s">
         <v>242</v>
       </c>
       <c r="CK4" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="CL4" s="1" t="s">
         <v>94</v>
@@ -4441,36 +4480,39 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="I5" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="J5" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>95</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>84</v>
@@ -4503,19 +4545,19 @@
         <v>96</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>236</v>
+        <v>376</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>236</v>
+        <v>377</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>88</v>
@@ -4560,13 +4602,13 @@
         <v>237</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>371</v>
+        <v>91</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="AT5" s="1" t="s">
         <v>238</v>
@@ -4575,7 +4617,7 @@
         <v>95</v>
       </c>
       <c r="AV5" s="1" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="AX5" s="1" t="s">
         <v>240</v>
@@ -4584,7 +4626,7 @@
         <v>88</v>
       </c>
       <c r="AZ5" s="1" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="BA5" s="1" t="s">
         <v>86</v>
@@ -4605,7 +4647,7 @@
         <v>96</v>
       </c>
       <c r="BJ5" s="1" t="s">
-        <v>236</v>
+        <v>377</v>
       </c>
       <c r="BL5" s="1" t="s">
         <v>88</v>
@@ -4614,7 +4656,7 @@
         <v>86</v>
       </c>
       <c r="BN5" s="1" t="s">
-        <v>363</v>
+        <v>243</v>
       </c>
       <c r="BP5" s="1" t="s">
         <v>242</v>
@@ -4644,7 +4686,7 @@
         <v>80</v>
       </c>
       <c r="BZ5" s="1" t="s">
-        <v>86</v>
+        <v>365</v>
       </c>
       <c r="CA5" s="1" t="s">
         <v>88</v>
@@ -4662,13 +4704,13 @@
         <v>86</v>
       </c>
       <c r="CH5" s="1" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="CJ5" s="1" t="s">
         <v>242</v>
       </c>
       <c r="CK5" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="CL5" s="1" t="s">
         <v>94</v>
@@ -4767,9 +4809,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>232</v>
@@ -4778,25 +4820,28 @@
         <v>89</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="I6" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="J6" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>95</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>84</v>
@@ -4823,25 +4868,25 @@
         <v>234</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>86</v>
+        <v>235</v>
       </c>
       <c r="W6" s="1" t="s">
         <v>96</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>88</v>
@@ -4886,13 +4931,13 @@
         <v>237</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>371</v>
+        <v>91</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="AT6" s="1" t="s">
         <v>238</v>
@@ -4901,7 +4946,7 @@
         <v>95</v>
       </c>
       <c r="AV6" s="1" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="AX6" s="1" t="s">
         <v>240</v>
@@ -4910,7 +4955,7 @@
         <v>88</v>
       </c>
       <c r="AZ6" s="1" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="BA6" s="1" t="s">
         <v>86</v>
@@ -4931,7 +4976,7 @@
         <v>96</v>
       </c>
       <c r="BJ6" s="1" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="BL6" s="1" t="s">
         <v>88</v>
@@ -4940,7 +4985,7 @@
         <v>86</v>
       </c>
       <c r="BN6" s="1" t="s">
-        <v>243</v>
+        <v>357</v>
       </c>
       <c r="BP6" s="1" t="s">
         <v>242</v>
@@ -4970,7 +5015,7 @@
         <v>80</v>
       </c>
       <c r="BZ6" s="1" t="s">
-        <v>86</v>
+        <v>365</v>
       </c>
       <c r="CA6" s="1" t="s">
         <v>88</v>
@@ -4988,13 +5033,13 @@
         <v>86</v>
       </c>
       <c r="CH6" s="1" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="CJ6" s="1" t="s">
         <v>242</v>
       </c>
       <c r="CK6" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="CL6" s="1" t="s">
         <v>94</v>
@@ -5093,27 +5138,30 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>379</v>
+    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>383</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="I7" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="J7" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>100</v>
@@ -5122,7 +5170,7 @@
         <v>95</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>84</v>
@@ -5155,16 +5203,16 @@
         <v>96</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>236</v>
+        <v>384</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>236</v>
+        <v>385</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="AB7" s="1" t="s">
         <v>235</v>
@@ -5212,10 +5260,10 @@
         <v>237</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>371</v>
+        <v>91</v>
       </c>
       <c r="AR7" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AS7" s="1" t="s">
         <v>100</v>
@@ -5236,7 +5284,7 @@
         <v>88</v>
       </c>
       <c r="AZ7" s="1" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="BA7" s="1" t="s">
         <v>86</v>
@@ -5257,7 +5305,7 @@
         <v>96</v>
       </c>
       <c r="BJ7" s="1" t="s">
-        <v>236</v>
+        <v>385</v>
       </c>
       <c r="BL7" s="1" t="s">
         <v>88</v>
@@ -5266,7 +5314,7 @@
         <v>86</v>
       </c>
       <c r="BN7" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="BP7" s="1" t="s">
         <v>242</v>
@@ -5296,7 +5344,7 @@
         <v>80</v>
       </c>
       <c r="BZ7" s="1" t="s">
-        <v>86</v>
+        <v>365</v>
       </c>
       <c r="CA7" s="1" t="s">
         <v>88</v>
@@ -5314,13 +5362,13 @@
         <v>86</v>
       </c>
       <c r="CH7" s="1" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="CJ7" s="1" t="s">
         <v>242</v>
       </c>
       <c r="CK7" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="CL7" s="1" t="s">
         <v>94</v>
@@ -5419,36 +5467,39 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="I8" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="J8" s="1" t="s">
-        <v>253</v>
+        <v>101</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>254</v>
+        <v>83</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>95</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>255</v>
+        <v>102</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>84</v>
@@ -5472,28 +5523,28 @@
         <v>92</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>86</v>
+        <v>249</v>
       </c>
       <c r="W8" s="1" t="s">
         <v>96</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>362</v>
+        <v>249</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>88</v>
@@ -5541,10 +5592,10 @@
         <v>91</v>
       </c>
       <c r="AR8" s="1" t="s">
-        <v>253</v>
+        <v>101</v>
       </c>
       <c r="AS8" s="1" t="s">
-        <v>254</v>
+        <v>83</v>
       </c>
       <c r="AT8" s="1" t="s">
         <v>238</v>
@@ -5553,7 +5604,7 @@
         <v>95</v>
       </c>
       <c r="AV8" s="1" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="AX8" s="1" t="s">
         <v>240</v>
@@ -5583,7 +5634,7 @@
         <v>96</v>
       </c>
       <c r="BJ8" s="1" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="BL8" s="1" t="s">
         <v>88</v>
@@ -5592,7 +5643,7 @@
         <v>86</v>
       </c>
       <c r="BN8" s="1" t="s">
-        <v>363</v>
+        <v>243</v>
       </c>
       <c r="BP8" s="1" t="s">
         <v>242</v>
@@ -5622,7 +5673,7 @@
         <v>80</v>
       </c>
       <c r="BZ8" s="1" t="s">
-        <v>86</v>
+        <v>365</v>
       </c>
       <c r="CA8" s="1" t="s">
         <v>88</v>
@@ -5640,13 +5691,13 @@
         <v>86</v>
       </c>
       <c r="CH8" s="1" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="CJ8" s="1" t="s">
         <v>242</v>
       </c>
       <c r="CK8" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="CL8" s="1" t="s">
         <v>94</v>
@@ -5679,7 +5730,7 @@
         <v>242</v>
       </c>
       <c r="DJ8" s="1" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="DK8" s="1" t="s">
         <v>88</v>
@@ -5726,11 +5777,17 @@
       <c r="DY8" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="EB8" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="ED8" s="1" t="s">
         <v>88</v>
       </c>
       <c r="EE8" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="EF8" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="EG8" s="1" t="s">
         <v>86</v>
@@ -5739,36 +5796,39 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="I9" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="J9" s="1" t="s">
-        <v>253</v>
+        <v>101</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>254</v>
+        <v>83</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>95</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>255</v>
+        <v>102</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>84</v>
@@ -5792,28 +5852,28 @@
         <v>92</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>256</v>
+        <v>86</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>264</v>
+        <v>96</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>88</v>
+        <v>376</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>88</v>
+        <v>377</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>387</v>
+        <v>249</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>88</v>
@@ -5861,10 +5921,10 @@
         <v>91</v>
       </c>
       <c r="AR9" s="1" t="s">
-        <v>253</v>
+        <v>101</v>
       </c>
       <c r="AS9" s="1" t="s">
-        <v>254</v>
+        <v>83</v>
       </c>
       <c r="AT9" s="1" t="s">
         <v>238</v>
@@ -5873,7 +5933,7 @@
         <v>95</v>
       </c>
       <c r="AV9" s="1" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="AX9" s="1" t="s">
         <v>240</v>
@@ -5903,7 +5963,7 @@
         <v>96</v>
       </c>
       <c r="BJ9" s="1" t="s">
-        <v>88</v>
+        <v>377</v>
       </c>
       <c r="BL9" s="1" t="s">
         <v>88</v>
@@ -5912,7 +5972,7 @@
         <v>86</v>
       </c>
       <c r="BN9" s="1" t="s">
-        <v>363</v>
+        <v>243</v>
       </c>
       <c r="BP9" s="1" t="s">
         <v>242</v>
@@ -5942,7 +6002,7 @@
         <v>80</v>
       </c>
       <c r="BZ9" s="1" t="s">
-        <v>86</v>
+        <v>365</v>
       </c>
       <c r="CA9" s="1" t="s">
         <v>88</v>
@@ -5960,13 +6020,13 @@
         <v>86</v>
       </c>
       <c r="CH9" s="1" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="CJ9" s="1" t="s">
         <v>242</v>
       </c>
       <c r="CK9" s="1" t="s">
-        <v>242</v>
+        <v>367</v>
       </c>
       <c r="CL9" s="1" t="s">
         <v>94</v>
@@ -6065,36 +6125,39 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>390</v>
+        <v>363</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>390</v>
+        <v>363</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="I10" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="J10" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>95</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>84</v>
@@ -6118,28 +6181,28 @@
         <v>92</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>86</v>
+        <v>235</v>
       </c>
       <c r="W10" s="1" t="s">
         <v>96</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="AC10" s="1" t="s">
         <v>88</v>
@@ -6184,13 +6247,13 @@
         <v>237</v>
       </c>
       <c r="AQ10" s="1" t="s">
-        <v>371</v>
+        <v>91</v>
       </c>
       <c r="AR10" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AS10" s="1" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="AT10" s="1" t="s">
         <v>238</v>
@@ -6199,7 +6262,7 @@
         <v>95</v>
       </c>
       <c r="AV10" s="1" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="AX10" s="1" t="s">
         <v>240</v>
@@ -6208,7 +6271,7 @@
         <v>88</v>
       </c>
       <c r="AZ10" s="1" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="BA10" s="1" t="s">
         <v>86</v>
@@ -6229,7 +6292,7 @@
         <v>96</v>
       </c>
       <c r="BJ10" s="1" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="BL10" s="1" t="s">
         <v>88</v>
@@ -6238,7 +6301,7 @@
         <v>86</v>
       </c>
       <c r="BN10" s="1" t="s">
-        <v>243</v>
+        <v>357</v>
       </c>
       <c r="BP10" s="1" t="s">
         <v>242</v>
@@ -6268,7 +6331,7 @@
         <v>80</v>
       </c>
       <c r="BZ10" s="1" t="s">
-        <v>86</v>
+        <v>365</v>
       </c>
       <c r="CA10" s="1" t="s">
         <v>88</v>
@@ -6286,13 +6349,13 @@
         <v>86</v>
       </c>
       <c r="CH10" s="1" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="CJ10" s="1" t="s">
         <v>242</v>
       </c>
       <c r="CK10" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="CL10" s="1" t="s">
         <v>94</v>
@@ -6325,7 +6388,7 @@
         <v>242</v>
       </c>
       <c r="DJ10" s="1" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="DK10" s="1" t="s">
         <v>88</v>
@@ -6372,11 +6435,17 @@
       <c r="DY10" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="EB10" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="ED10" s="1" t="s">
         <v>88</v>
       </c>
       <c r="EE10" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="EF10" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="EG10" s="1" t="s">
         <v>86</v>
@@ -6385,24 +6454,27 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>390</v>
+        <v>363</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>390</v>
+        <v>363</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>80</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>372</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>104</v>
@@ -6438,7 +6510,7 @@
         <v>92</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="V11" s="1" t="s">
         <v>86</v>
@@ -6447,16 +6519,16 @@
         <v>96</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>267</v>
+        <v>384</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>267</v>
+        <v>385</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="AB11" s="1" t="s">
         <v>235</v>
@@ -6504,7 +6576,7 @@
         <v>237</v>
       </c>
       <c r="AQ11" s="1" t="s">
-        <v>371</v>
+        <v>91</v>
       </c>
       <c r="AR11" s="1" t="s">
         <v>104</v>
@@ -6528,7 +6600,7 @@
         <v>88</v>
       </c>
       <c r="AZ11" s="1" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="BA11" s="1" t="s">
         <v>86</v>
@@ -6549,7 +6621,7 @@
         <v>96</v>
       </c>
       <c r="BJ11" s="1" t="s">
-        <v>267</v>
+        <v>385</v>
       </c>
       <c r="BL11" s="1" t="s">
         <v>88</v>
@@ -6558,7 +6630,7 @@
         <v>86</v>
       </c>
       <c r="BN11" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="BP11" s="1" t="s">
         <v>242</v>
@@ -6588,7 +6660,7 @@
         <v>80</v>
       </c>
       <c r="BZ11" s="1" t="s">
-        <v>86</v>
+        <v>365</v>
       </c>
       <c r="CA11" s="1" t="s">
         <v>88</v>
@@ -6606,13 +6678,13 @@
         <v>86</v>
       </c>
       <c r="CH11" s="1" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="CJ11" s="1" t="s">
         <v>242</v>
       </c>
       <c r="CK11" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="CL11" s="1" t="s">
         <v>94</v>
@@ -6645,7 +6717,7 @@
         <v>242</v>
       </c>
       <c r="DJ11" s="1" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="DK11" s="1" t="s">
         <v>88</v>
@@ -6692,11 +6764,17 @@
       <c r="DY11" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="EB11" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="ED11" s="1" t="s">
         <v>88</v>
       </c>
       <c r="EE11" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="EF11" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="EG11" s="1" t="s">
         <v>86</v>
@@ -6705,9 +6783,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>265</v>
@@ -6716,25 +6794,25 @@
         <v>89</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>80</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>81</v>
+        <v>253</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>83</v>
+        <v>254</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>95</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>82</v>
+        <v>255</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>84</v>
@@ -6767,19 +6845,19 @@
         <v>96</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="AC12" s="1" t="s">
         <v>88</v>
@@ -6824,13 +6902,13 @@
         <v>237</v>
       </c>
       <c r="AQ12" s="1" t="s">
-        <v>371</v>
+        <v>91</v>
       </c>
       <c r="AR12" s="1" t="s">
-        <v>81</v>
+        <v>253</v>
       </c>
       <c r="AS12" s="1" t="s">
-        <v>83</v>
+        <v>254</v>
       </c>
       <c r="AT12" s="1" t="s">
         <v>238</v>
@@ -6839,7 +6917,7 @@
         <v>95</v>
       </c>
       <c r="AV12" s="1" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="AX12" s="1" t="s">
         <v>240</v>
@@ -6848,7 +6926,7 @@
         <v>88</v>
       </c>
       <c r="AZ12" s="1" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="BA12" s="1" t="s">
         <v>86</v>
@@ -6869,7 +6947,7 @@
         <v>96</v>
       </c>
       <c r="BJ12" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="BL12" s="1" t="s">
         <v>88</v>
@@ -6878,7 +6956,7 @@
         <v>86</v>
       </c>
       <c r="BN12" s="1" t="s">
-        <v>243</v>
+        <v>357</v>
       </c>
       <c r="BP12" s="1" t="s">
         <v>242</v>
@@ -6908,7 +6986,7 @@
         <v>80</v>
       </c>
       <c r="BZ12" s="1" t="s">
-        <v>86</v>
+        <v>365</v>
       </c>
       <c r="CA12" s="1" t="s">
         <v>88</v>
@@ -6926,13 +7004,13 @@
         <v>86</v>
       </c>
       <c r="CH12" s="1" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="CJ12" s="1" t="s">
         <v>242</v>
       </c>
       <c r="CK12" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="CL12" s="1" t="s">
         <v>94</v>
@@ -7012,11 +7090,17 @@
       <c r="DY12" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="EB12" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="ED12" s="1" t="s">
         <v>88</v>
       </c>
       <c r="EE12" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="EF12" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="EG12" s="1" t="s">
         <v>86</v>
@@ -7025,36 +7109,36 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>80</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>98</v>
+        <v>253</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>100</v>
+        <v>254</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>95</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>99</v>
+        <v>255</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>84</v>
@@ -7078,28 +7162,28 @@
         <v>92</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>86</v>
+        <v>256</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>96</v>
+        <v>264</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>267</v>
+        <v>88</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>267</v>
+        <v>88</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>235</v>
+        <v>86</v>
       </c>
       <c r="AC13" s="1" t="s">
         <v>88</v>
@@ -7144,13 +7228,13 @@
         <v>237</v>
       </c>
       <c r="AQ13" s="1" t="s">
-        <v>371</v>
+        <v>91</v>
       </c>
       <c r="AR13" s="1" t="s">
-        <v>98</v>
+        <v>253</v>
       </c>
       <c r="AS13" s="1" t="s">
-        <v>100</v>
+        <v>254</v>
       </c>
       <c r="AT13" s="1" t="s">
         <v>238</v>
@@ -7168,7 +7252,7 @@
         <v>88</v>
       </c>
       <c r="AZ13" s="1" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="BA13" s="1" t="s">
         <v>86</v>
@@ -7189,7 +7273,7 @@
         <v>96</v>
       </c>
       <c r="BJ13" s="1" t="s">
-        <v>267</v>
+        <v>88</v>
       </c>
       <c r="BL13" s="1" t="s">
         <v>88</v>
@@ -7198,7 +7282,7 @@
         <v>86</v>
       </c>
       <c r="BN13" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="BP13" s="1" t="s">
         <v>242</v>
@@ -7228,7 +7312,7 @@
         <v>80</v>
       </c>
       <c r="BZ13" s="1" t="s">
-        <v>86</v>
+        <v>365</v>
       </c>
       <c r="CA13" s="1" t="s">
         <v>88</v>
@@ -7246,13 +7330,13 @@
         <v>86</v>
       </c>
       <c r="CH13" s="1" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="CJ13" s="1" t="s">
         <v>242</v>
       </c>
       <c r="CK13" s="1" t="s">
-        <v>365</v>
+        <v>242</v>
       </c>
       <c r="CL13" s="1" t="s">
         <v>94</v>
@@ -7285,7 +7369,7 @@
         <v>242</v>
       </c>
       <c r="DJ13" s="1" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="DK13" s="1" t="s">
         <v>88</v>
@@ -7332,11 +7416,17 @@
       <c r="DY13" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="EB13" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="ED13" s="1" t="s">
         <v>88</v>
       </c>
       <c r="EE13" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="EF13" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="EG13" s="1" t="s">
         <v>86</v>
@@ -7345,27 +7435,30 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="I14" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="J14" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>83</v>
@@ -7374,7 +7467,7 @@
         <v>95</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>84</v>
@@ -7398,28 +7491,28 @@
         <v>92</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="V14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="AB14" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="AC14" s="1" t="s">
         <v>88</v>
@@ -7464,10 +7557,10 @@
         <v>237</v>
       </c>
       <c r="AQ14" s="1" t="s">
-        <v>371</v>
+        <v>91</v>
       </c>
       <c r="AR14" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS14" s="1" t="s">
         <v>83</v>
@@ -7488,7 +7581,7 @@
         <v>88</v>
       </c>
       <c r="AZ14" s="1" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="BA14" s="1" t="s">
         <v>86</v>
@@ -7509,7 +7602,7 @@
         <v>96</v>
       </c>
       <c r="BJ14" s="1" t="s">
-        <v>88</v>
+        <v>269</v>
       </c>
       <c r="BL14" s="1" t="s">
         <v>88</v>
@@ -7548,7 +7641,7 @@
         <v>80</v>
       </c>
       <c r="BZ14" s="1" t="s">
-        <v>86</v>
+        <v>365</v>
       </c>
       <c r="CA14" s="1" t="s">
         <v>88</v>
@@ -7566,13 +7659,13 @@
         <v>86</v>
       </c>
       <c r="CH14" s="1" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="CJ14" s="1" t="s">
         <v>242</v>
       </c>
       <c r="CK14" s="1" t="s">
-        <v>242</v>
+        <v>367</v>
       </c>
       <c r="CL14" s="1" t="s">
         <v>94</v>
@@ -7605,7 +7698,7 @@
         <v>242</v>
       </c>
       <c r="DJ14" s="1" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="DK14" s="1" t="s">
         <v>88</v>
@@ -7671,9 +7764,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>262</v>
@@ -7682,25 +7775,28 @@
         <v>89</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="I15" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="J15" s="1" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>95</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>84</v>
@@ -7727,13 +7823,13 @@
         <v>263</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="W15" s="1" t="s">
         <v>264</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Y15" s="1" t="s">
         <v>88</v>
@@ -7742,7 +7838,7 @@
         <v>88</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="AB15" s="1" t="s">
         <v>86</v>
@@ -7790,13 +7886,13 @@
         <v>237</v>
       </c>
       <c r="AQ15" s="1" t="s">
-        <v>371</v>
+        <v>91</v>
       </c>
       <c r="AR15" s="1" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="AS15" s="1" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="AT15" s="1" t="s">
         <v>238</v>
@@ -7805,7 +7901,7 @@
         <v>95</v>
       </c>
       <c r="AV15" s="1" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="AX15" s="1" t="s">
         <v>240</v>
@@ -7814,7 +7910,7 @@
         <v>88</v>
       </c>
       <c r="AZ15" s="1" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="BA15" s="1" t="s">
         <v>86</v>
@@ -7844,7 +7940,7 @@
         <v>86</v>
       </c>
       <c r="BN15" s="1" t="s">
-        <v>363</v>
+        <v>243</v>
       </c>
       <c r="BP15" s="1" t="s">
         <v>242</v>
@@ -7874,7 +7970,7 @@
         <v>80</v>
       </c>
       <c r="BZ15" s="1" t="s">
-        <v>86</v>
+        <v>365</v>
       </c>
       <c r="CA15" s="1" t="s">
         <v>88</v>
@@ -7892,7 +7988,7 @@
         <v>86</v>
       </c>
       <c r="CH15" s="1" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="CJ15" s="1" t="s">
         <v>242</v>
@@ -7997,36 +8093,39 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="I16" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="J16" s="1" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>95</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>84</v>
@@ -8050,28 +8149,28 @@
         <v>92</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>249</v>
+        <v>86</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>264</v>
+        <v>96</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>88</v>
+        <v>267</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>88</v>
+        <v>267</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>86</v>
+        <v>235</v>
       </c>
       <c r="AC16" s="1" t="s">
         <v>88</v>
@@ -8116,13 +8215,13 @@
         <v>237</v>
       </c>
       <c r="AQ16" s="1" t="s">
-        <v>371</v>
+        <v>91</v>
       </c>
       <c r="AR16" s="1" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="AS16" s="1" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="AT16" s="1" t="s">
         <v>238</v>
@@ -8131,7 +8230,7 @@
         <v>95</v>
       </c>
       <c r="AV16" s="1" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="AX16" s="1" t="s">
         <v>240</v>
@@ -8140,7 +8239,7 @@
         <v>88</v>
       </c>
       <c r="AZ16" s="1" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="BA16" s="1" t="s">
         <v>86</v>
@@ -8161,7 +8260,7 @@
         <v>96</v>
       </c>
       <c r="BJ16" s="1" t="s">
-        <v>88</v>
+        <v>267</v>
       </c>
       <c r="BL16" s="1" t="s">
         <v>88</v>
@@ -8170,7 +8269,7 @@
         <v>86</v>
       </c>
       <c r="BN16" s="1" t="s">
-        <v>243</v>
+        <v>357</v>
       </c>
       <c r="BP16" s="1" t="s">
         <v>242</v>
@@ -8200,7 +8299,7 @@
         <v>80</v>
       </c>
       <c r="BZ16" s="1" t="s">
-        <v>86</v>
+        <v>365</v>
       </c>
       <c r="CA16" s="1" t="s">
         <v>88</v>
@@ -8218,13 +8317,13 @@
         <v>86</v>
       </c>
       <c r="CH16" s="1" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="CJ16" s="1" t="s">
         <v>242</v>
       </c>
       <c r="CK16" s="1" t="s">
-        <v>242</v>
+        <v>367</v>
       </c>
       <c r="CL16" s="1" t="s">
         <v>94</v>
@@ -8257,7 +8356,7 @@
         <v>242</v>
       </c>
       <c r="DJ16" s="1" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="DK16" s="1" t="s">
         <v>88</v>
@@ -8323,9 +8422,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>262</v>
@@ -8334,13 +8433,16 @@
         <v>89</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>80</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>372</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>98</v>
@@ -8385,7 +8487,7 @@
         <v>264</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Y17" s="1" t="s">
         <v>88</v>
@@ -8394,7 +8496,7 @@
         <v>88</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="AB17" s="1" t="s">
         <v>86</v>
@@ -8442,7 +8544,7 @@
         <v>237</v>
       </c>
       <c r="AQ17" s="1" t="s">
-        <v>371</v>
+        <v>91</v>
       </c>
       <c r="AR17" s="1" t="s">
         <v>98</v>
@@ -8466,7 +8568,7 @@
         <v>88</v>
       </c>
       <c r="AZ17" s="1" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="BA17" s="1" t="s">
         <v>86</v>
@@ -8496,7 +8598,7 @@
         <v>86</v>
       </c>
       <c r="BN17" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="BP17" s="1" t="s">
         <v>242</v>
@@ -8526,7 +8628,7 @@
         <v>80</v>
       </c>
       <c r="BZ17" s="1" t="s">
-        <v>86</v>
+        <v>365</v>
       </c>
       <c r="CA17" s="1" t="s">
         <v>88</v>
@@ -8544,7 +8646,7 @@
         <v>86</v>
       </c>
       <c r="CH17" s="1" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="CJ17" s="1" t="s">
         <v>242</v>
@@ -8649,35 +8751,1329 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP18" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AQ18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT18" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AU18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV18" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AX18" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AY18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ18" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="BA18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF18" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="BG18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BJ18" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="BL18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BM18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BN18" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="BP18" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="BQ18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BS18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BT18" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="BV18" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="BW18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BX18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BY18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BZ18" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="CA18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CB18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CD18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CE18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CG18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CH18" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="CJ18" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="CK18" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="CL18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR18" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="CT18" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="CV18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="DA18" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="DC18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DD18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DE18" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="DF18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DG18" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="DJ18" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="DK18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DL18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DM18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DN18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DO18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DP18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DQ18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DR18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DS18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DT18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DU18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DV18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DW18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DX18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DY18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="EB18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="ED18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="EE18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="EF18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="EG18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="EI18" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP19" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AQ19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT19" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AU19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV19" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AX19" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AY19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ19" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="BA19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF19" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="BG19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BJ19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BL19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BM19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BN19" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="BP19" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="BQ19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BS19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BT19" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="BV19" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="BW19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BX19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BY19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BZ19" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="CA19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CB19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CD19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CE19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CG19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CH19" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="CJ19" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="CK19" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="CL19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR19" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="CT19" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="CV19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="DA19" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="DC19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DD19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DE19" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="DF19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DG19" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="DJ19" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="DK19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DL19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DM19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DN19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DO19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DP19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DQ19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DR19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DS19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DT19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DU19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DV19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DW19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DX19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DY19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="EB19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="ED19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="EE19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="EF19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="EG19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="EI19" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP20" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AQ20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AT20" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AU20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV20" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AX20" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AY20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ20" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="BA20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF20" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="BG20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BJ20" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BL20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BM20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BN20" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="BP20" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="BQ20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BS20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BT20" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="BV20" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="BW20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BX20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BY20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BZ20" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="CA20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CB20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CD20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CE20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CG20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CH20" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="CJ20" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="CK20" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="CL20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR20" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="CT20" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="CV20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="DA20" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="DC20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DD20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DE20" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="DF20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DG20" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="DJ20" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="DK20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DL20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DM20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DN20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DO20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DP20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DQ20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DR20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DS20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DT20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DU20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DV20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DW20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DX20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DY20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="EB20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="ED20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="EE20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="EF20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="EG20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="EI20" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP21" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AQ21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AT21" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AU21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV21" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AX21" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AY21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ21" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="BA21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF21" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="BG21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BJ21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BL21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BM21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BN21" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="BP21" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="BQ21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BS21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BT21" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="BV21" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="BW21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BX21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BY21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BZ21" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="CA21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CB21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CD21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CE21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CG21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CH21" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="CJ21" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="CK21" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="CL21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR21" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="CT21" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="CV21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="DA21" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="DC21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DD21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DE21" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="DF21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DG21" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="DJ21" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="DK21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DL21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DM21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DN21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DO21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DP21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DQ21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DR21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DS21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DT21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DU21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DV21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DW21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DX21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DY21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="EB21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="ED21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="EE21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="EF21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="EG21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="EI21" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8690,29 +10086,29 @@
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="3" width="7.625" customWidth="1"/>
-    <col min="4" max="4" width="9.625" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
     <col min="5" max="6" width="13" customWidth="1"/>
-    <col min="7" max="9" width="14.125" customWidth="1"/>
-    <col min="10" max="10" width="11.875" customWidth="1"/>
-    <col min="11" max="11" width="15.25" customWidth="1"/>
-    <col min="12" max="12" width="20.875" customWidth="1"/>
-    <col min="13" max="13" width="18.625" customWidth="1"/>
+    <col min="7" max="9" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" customWidth="1"/>
+    <col min="11" max="11" width="15.21875" customWidth="1"/>
+    <col min="12" max="12" width="20.88671875" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" customWidth="1"/>
     <col min="14" max="14" width="22" customWidth="1"/>
-    <col min="15" max="15" width="18.625" customWidth="1"/>
-    <col min="16" max="16" width="19.75" customWidth="1"/>
-    <col min="17" max="17" width="14.125" customWidth="1"/>
-    <col min="18" max="18" width="23.125" customWidth="1"/>
-    <col min="19" max="19" width="15.25" customWidth="1"/>
-    <col min="20" max="20" width="14.125" customWidth="1"/>
-    <col min="21" max="22" width="16.5" customWidth="1"/>
-    <col min="23" max="24" width="8.625" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" customWidth="1"/>
+    <col min="16" max="16" width="19.77734375" customWidth="1"/>
+    <col min="17" max="17" width="14.109375" customWidth="1"/>
+    <col min="18" max="18" width="23.109375" customWidth="1"/>
+    <col min="19" max="19" width="15.21875" customWidth="1"/>
+    <col min="20" max="20" width="14.109375" customWidth="1"/>
+    <col min="21" max="22" width="16.44140625" customWidth="1"/>
+    <col min="23" max="24" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8786,7 +10182,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>79</v>
       </c>
@@ -8851,9 +10247,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8866,68 +10262,68 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="7.625" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="8.625" customWidth="1"/>
+    <col min="1" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="7.625" customWidth="1"/>
-    <col min="8" max="8" width="10.75" customWidth="1"/>
-    <col min="9" max="9" width="9.625" customWidth="1"/>
-    <col min="10" max="10" width="7.625" customWidth="1"/>
-    <col min="11" max="11" width="9.625" customWidth="1"/>
-    <col min="12" max="12" width="14.125" customWidth="1"/>
-    <col min="13" max="13" width="11.875" customWidth="1"/>
-    <col min="14" max="15" width="10.75" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" customWidth="1"/>
+    <col min="14" max="15" width="10.77734375" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="5.625" customWidth="1"/>
+    <col min="17" max="17" width="5.6640625" customWidth="1"/>
     <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="10.75" customWidth="1"/>
-    <col min="20" max="20" width="14.125" customWidth="1"/>
-    <col min="21" max="21" width="7.625" customWidth="1"/>
-    <col min="22" max="23" width="11.875" customWidth="1"/>
-    <col min="24" max="24" width="10.75" customWidth="1"/>
-    <col min="25" max="25" width="11.875" customWidth="1"/>
-    <col min="26" max="27" width="9.625" customWidth="1"/>
+    <col min="19" max="19" width="10.77734375" customWidth="1"/>
+    <col min="20" max="20" width="14.109375" customWidth="1"/>
+    <col min="21" max="21" width="7.6640625" customWidth="1"/>
+    <col min="22" max="23" width="11.88671875" customWidth="1"/>
+    <col min="24" max="24" width="10.77734375" customWidth="1"/>
+    <col min="25" max="25" width="11.88671875" customWidth="1"/>
+    <col min="26" max="27" width="9.6640625" customWidth="1"/>
     <col min="28" max="29" width="13" customWidth="1"/>
-    <col min="30" max="30" width="11.875" customWidth="1"/>
-    <col min="31" max="31" width="14.125" customWidth="1"/>
-    <col min="32" max="32" width="7.625" customWidth="1"/>
-    <col min="33" max="33" width="9.625" customWidth="1"/>
+    <col min="30" max="30" width="11.88671875" customWidth="1"/>
+    <col min="31" max="31" width="14.109375" customWidth="1"/>
+    <col min="32" max="32" width="7.6640625" customWidth="1"/>
+    <col min="33" max="33" width="9.6640625" customWidth="1"/>
     <col min="34" max="34" width="13" customWidth="1"/>
-    <col min="35" max="35" width="14.125" customWidth="1"/>
-    <col min="36" max="39" width="10.75" customWidth="1"/>
-    <col min="40" max="40" width="11.875" customWidth="1"/>
-    <col min="41" max="41" width="16.5" customWidth="1"/>
-    <col min="42" max="43" width="11.875" customWidth="1"/>
-    <col min="44" max="44" width="14.125" customWidth="1"/>
-    <col min="45" max="45" width="16.5" customWidth="1"/>
-    <col min="46" max="46" width="14.125" customWidth="1"/>
-    <col min="47" max="47" width="8.625" customWidth="1"/>
-    <col min="48" max="48" width="11.875" customWidth="1"/>
-    <col min="49" max="49" width="5.625" customWidth="1"/>
-    <col min="50" max="50" width="6.625" customWidth="1"/>
-    <col min="51" max="52" width="14.125" customWidth="1"/>
+    <col min="35" max="35" width="14.109375" customWidth="1"/>
+    <col min="36" max="39" width="10.77734375" customWidth="1"/>
+    <col min="40" max="40" width="11.88671875" customWidth="1"/>
+    <col min="41" max="41" width="16.44140625" customWidth="1"/>
+    <col min="42" max="43" width="11.88671875" customWidth="1"/>
+    <col min="44" max="44" width="14.109375" customWidth="1"/>
+    <col min="45" max="45" width="16.44140625" customWidth="1"/>
+    <col min="46" max="46" width="14.109375" customWidth="1"/>
+    <col min="47" max="47" width="8.6640625" customWidth="1"/>
+    <col min="48" max="48" width="11.88671875" customWidth="1"/>
+    <col min="49" max="49" width="5.6640625" customWidth="1"/>
+    <col min="50" max="50" width="6.6640625" customWidth="1"/>
+    <col min="51" max="52" width="14.109375" customWidth="1"/>
     <col min="53" max="53" width="13" customWidth="1"/>
-    <col min="54" max="54" width="15.25" customWidth="1"/>
-    <col min="55" max="55" width="14.125" customWidth="1"/>
-    <col min="56" max="56" width="20.875" customWidth="1"/>
+    <col min="54" max="54" width="15.21875" customWidth="1"/>
+    <col min="55" max="55" width="14.109375" customWidth="1"/>
+    <col min="56" max="56" width="20.88671875" customWidth="1"/>
     <col min="57" max="57" width="13" customWidth="1"/>
-    <col min="58" max="58" width="14.125" customWidth="1"/>
-    <col min="59" max="59" width="15.25" customWidth="1"/>
-    <col min="60" max="60" width="10.75" customWidth="1"/>
-    <col min="61" max="61" width="5.625" customWidth="1"/>
-    <col min="62" max="62" width="10.75" customWidth="1"/>
-    <col min="63" max="63" width="16.5" customWidth="1"/>
-    <col min="64" max="64" width="11.875" customWidth="1"/>
+    <col min="58" max="58" width="14.109375" customWidth="1"/>
+    <col min="59" max="59" width="15.21875" customWidth="1"/>
+    <col min="60" max="60" width="10.77734375" customWidth="1"/>
+    <col min="61" max="61" width="5.6640625" customWidth="1"/>
+    <col min="62" max="62" width="10.77734375" customWidth="1"/>
+    <col min="63" max="63" width="16.44140625" customWidth="1"/>
+    <col min="64" max="64" width="11.88671875" customWidth="1"/>
     <col min="65" max="65" width="13" customWidth="1"/>
-    <col min="66" max="66" width="10.75" customWidth="1"/>
-    <col min="67" max="68" width="11.875" customWidth="1"/>
+    <col min="66" max="66" width="10.77734375" customWidth="1"/>
+    <col min="67" max="68" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>108</v>
       </c>
@@ -9133,7 +10529,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="2" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>330</v>
       </c>
@@ -9273,7 +10669,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>330</v>
       </c>
@@ -9413,7 +10809,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>330</v>
       </c>
@@ -9553,7 +10949,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>330</v>
       </c>
@@ -9693,7 +11089,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>330</v>
       </c>
@@ -9833,7 +11229,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>330</v>
       </c>
@@ -9973,7 +11369,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>330</v>
       </c>
@@ -10113,7 +11509,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>330</v>
       </c>
@@ -10253,7 +11649,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>330</v>
       </c>
@@ -10393,7 +11789,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>330</v>
       </c>
@@ -10533,7 +11929,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>330</v>
       </c>
@@ -10673,7 +12069,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>330</v>
       </c>
@@ -10813,7 +12209,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>330</v>
       </c>
@@ -10953,7 +12349,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>330</v>
       </c>
@@ -11093,7 +12489,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>330</v>
       </c>
@@ -11233,7 +12629,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>330</v>
       </c>
@@ -11373,7 +12769,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>330</v>
       </c>
@@ -11513,7 +12909,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>330</v>
       </c>
@@ -11656,7 +13052,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>330</v>
       </c>
@@ -11796,7 +13192,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>330</v>
       </c>
@@ -11939,7 +13335,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>330</v>
       </c>
@@ -12084,7 +13480,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:BP22"/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>